--- a/biology/Médecine/Grégoire_Francois_Du_Rietz/Grégoire_Francois_Du_Rietz.xlsx
+++ b/biology/Médecine/Grégoire_Francois_Du_Rietz/Grégoire_Francois_Du_Rietz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Francois_Du_Rietz</t>
+          <t>Grégoire_Francois_Du_Rietz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grégoire Francois Du Rietz (Durietz) né en 1607 à Arras et mort le 5 mars 1682 à Stockholm est un docteur en médecine qui a exercé à la cour des monarques de Suède[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégoire Francois Du Rietz (Durietz) né en 1607 à Arras et mort le 5 mars 1682 à Stockholm est un docteur en médecine qui a exercé à la cour des monarques de Suède.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A9goire_Francois_Du_Rietz</t>
+          <t>Grégoire_Francois_Du_Rietz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du Rietz est diplômé de l'université de la ville huguenote d'Orange en Provence. En 1642 Du Rietz arrive à Stockholm, c'est le premier des savants à venir à la cour de la Christine de Suède et il devient le docteur personnel de la reine[2]. Lorsqu'elle abdique en 1654, il devient le médecin de Charles X Gustave, d'Edwige-Éléonore de Holstein-Gottorp et de leur fils Charles XI. 
-Du Rietz a fondé avec trois autres médecins le Collegium medicorum à Stockholm en 1663[3], renommé Collegium medicum 1688[4]. Pendant quelques années il fut un des chefs pour la paroisse huguenote provisoire de Södermalm à Stockholm où plusieurs familles huguenotes habitaient[2] et il fut enterré à Södermalm en l'église Maria Magdalena.
-Du Rietz s'est marié en premières noces avec Estré Radoul. Leur fils a vécu et est mort en France ; leur fille Estré s'est mariée à M. de Vempère dans le Languedoc. Du Rietz s'est marié une deuxième fois le 27 avril 1648 à Stockholm avec Helena Radou, fille du commerçant de Stockholm Jacob Radou et veuve d'un commerçant hollandais. À travers elle, Du Rietz devint propriétaire de quelques ferronneries suédoises[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du Rietz est diplômé de l'université de la ville huguenote d'Orange en Provence. En 1642 Du Rietz arrive à Stockholm, c'est le premier des savants à venir à la cour de la Christine de Suède et il devient le docteur personnel de la reine. Lorsqu'elle abdique en 1654, il devient le médecin de Charles X Gustave, d'Edwige-Éléonore de Holstein-Gottorp et de leur fils Charles XI. 
+Du Rietz a fondé avec trois autres médecins le Collegium medicorum à Stockholm en 1663, renommé Collegium medicum 1688. Pendant quelques années il fut un des chefs pour la paroisse huguenote provisoire de Södermalm à Stockholm où plusieurs familles huguenotes habitaient et il fut enterré à Södermalm en l'église Maria Magdalena.
+Du Rietz s'est marié en premières noces avec Estré Radoul. Leur fils a vécu et est mort en France ; leur fille Estré s'est mariée à M. de Vempère dans le Languedoc. Du Rietz s'est marié une deuxième fois le 27 avril 1648 à Stockholm avec Helena Radou, fille du commerçant de Stockholm Jacob Radou et veuve d'un commerçant hollandais. À travers elle, Du Rietz devint propriétaire de quelques ferronneries suédoises.
 </t>
         </is>
       </c>
